--- a/7/2/2/1/2/2/Compañías de seguros 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/2/1/2/2/Compañías de seguros 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Serie</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6602,25 +6605,25 @@
         <v>99</v>
       </c>
       <c r="B75">
-        <v>53504</v>
+        <v>53484</v>
       </c>
       <c r="C75">
-        <v>1814</v>
+        <v>1672</v>
       </c>
       <c r="D75">
         <v>485</v>
       </c>
       <c r="E75">
-        <v>1329</v>
+        <v>1188</v>
       </c>
       <c r="F75">
-        <v>29259</v>
+        <v>29397</v>
       </c>
       <c r="G75">
         <v>106</v>
       </c>
       <c r="H75">
-        <v>29153</v>
+        <v>29290</v>
       </c>
       <c r="I75">
         <v>10127</v>
@@ -6629,40 +6632,40 @@
         <v>10127</v>
       </c>
       <c r="K75">
-        <v>8483</v>
+        <v>8455</v>
       </c>
       <c r="L75">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="M75">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="N75">
         <v>7390</v>
       </c>
       <c r="O75">
-        <v>3820</v>
+        <v>3832</v>
       </c>
       <c r="P75">
-        <v>-712</v>
+        <v>-705</v>
       </c>
       <c r="Q75">
-        <v>54216</v>
+        <v>54189</v>
       </c>
       <c r="R75">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="S75">
         <v>415</v>
       </c>
       <c r="T75">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="U75">
-        <v>6201</v>
+        <v>6211</v>
       </c>
       <c r="V75">
-        <v>6201</v>
+        <v>6211</v>
       </c>
       <c r="W75">
         <v>43916</v>
@@ -6674,7 +6677,87 @@
         <v>1532</v>
       </c>
       <c r="Z75">
-        <v>3480</v>
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76">
+        <v>51040</v>
+      </c>
+      <c r="C76">
+        <v>1582</v>
+      </c>
+      <c r="D76">
+        <v>454</v>
+      </c>
+      <c r="E76">
+        <v>1128</v>
+      </c>
+      <c r="F76">
+        <v>26757</v>
+      </c>
+      <c r="G76">
+        <v>71</v>
+      </c>
+      <c r="H76">
+        <v>26686</v>
+      </c>
+      <c r="I76">
+        <v>10284</v>
+      </c>
+      <c r="J76">
+        <v>10284</v>
+      </c>
+      <c r="K76">
+        <v>8409</v>
+      </c>
+      <c r="L76">
+        <v>836</v>
+      </c>
+      <c r="M76">
+        <v>183</v>
+      </c>
+      <c r="N76">
+        <v>7390</v>
+      </c>
+      <c r="O76">
+        <v>4008</v>
+      </c>
+      <c r="P76">
+        <v>-2900</v>
+      </c>
+      <c r="Q76">
+        <v>53941</v>
+      </c>
+      <c r="R76">
+        <v>740</v>
+      </c>
+      <c r="S76">
+        <v>508</v>
+      </c>
+      <c r="T76">
+        <v>232</v>
+      </c>
+      <c r="U76">
+        <v>6225</v>
+      </c>
+      <c r="V76">
+        <v>6225</v>
+      </c>
+      <c r="W76">
+        <v>43693</v>
+      </c>
+      <c r="X76">
+        <v>42184</v>
+      </c>
+      <c r="Y76">
+        <v>1509</v>
+      </c>
+      <c r="Z76">
+        <v>3282</v>
       </c>
     </row>
   </sheetData>
